--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="4056" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
+    <workbookView xWindow="-38400" yWindow="4656" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="884">
   <si>
     <t>主題</t>
   </si>
@@ -2058,702 +2058,767 @@
     <t>狸克</t>
   </si>
   <si>
+    <t>鈴鈴鹿</t>
+  </si>
+  <si>
+    <t>阿獺</t>
+  </si>
+  <si>
+    <t>然然</t>
+  </si>
+  <si>
+    <t>巴獵</t>
+  </si>
+  <si>
+    <t>西施德</t>
+  </si>
+  <si>
+    <t>壽伯</t>
+  </si>
+  <si>
+    <t>富藍</t>
+  </si>
+  <si>
+    <t>笑匠</t>
+  </si>
+  <si>
+    <t>海項</t>
+  </si>
+  <si>
+    <t>幫村民蓋房子劇情中有50%機會獲得</t>
+  </si>
+  <si>
+    <t>釣到一個空罐頭</t>
+  </si>
+  <si>
+    <t>釣到一個舊輪胎</t>
+  </si>
+  <si>
+    <t>釣到十五個垃圾</t>
+  </si>
+  <si>
+    <t>主線劇情獲得</t>
+  </si>
+  <si>
+    <t>島花為波斯菊，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為風信子，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為百合花，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為菊花，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為三色堇，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為玫瑰，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為鬱金香，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島花為銀蓮花，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島水果為蘋果，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島水果為櫻桃，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島水果為橘子，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島水果為桃子，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>島水果為水梨，則在幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>在遊戲開始時完成自己的DIY工作坊後從狸克獲得</t>
+  </si>
+  <si>
+    <t>Only available during Bunny Day</t>
+  </si>
+  <si>
+    <t>Only available during Festive Season</t>
+  </si>
+  <si>
+    <t>Only available during Maple Leaf Season</t>
+  </si>
+  <si>
+    <t>從Nook商店購買第一次的DIY方程式；幫村民蓋房子劇情中有50%機會獲得</t>
+  </si>
+  <si>
+    <t>從Nook商店購買第一次的DIY方程式；幫村民蓋房子劇情中獲得</t>
+  </si>
+  <si>
+    <t>Purchase Wildest Dreams DIY from Nook's Cranny</t>
+  </si>
+  <si>
+    <t>Reward from Zipper after crafting all Bunny Day recipes; Only available during Bunny Day</t>
+  </si>
+  <si>
+    <t>Obtained during the main storyline</t>
+  </si>
+  <si>
+    <t>Fish up 1 boot</t>
+  </si>
+  <si>
+    <t>Picking up gold nuggets knocked out of rocks</t>
+  </si>
+  <si>
+    <t>在遊戲開始時通過狸克的DIY工作坊獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠閒型村民</t>
+  </si>
+  <si>
+    <t>普通型村民</t>
+  </si>
+  <si>
+    <t>挑戰！DIY方程式</t>
+  </si>
+  <si>
+    <t>哩數兌換</t>
+  </si>
+  <si>
+    <t>自戀型村民</t>
+  </si>
+  <si>
+    <t>運動型村民</t>
+  </si>
+  <si>
+    <t>暴躁型村民</t>
+  </si>
+  <si>
+    <t>成熟型村民</t>
+  </si>
+  <si>
+    <t>氣球</t>
+  </si>
+  <si>
+    <t>大姐姐型村民</t>
+  </si>
+  <si>
+    <t>活力型村民</t>
+  </si>
+  <si>
+    <t>House Door Decor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>時尚單品</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>可改造</t>
+  </si>
+  <si>
+    <t>化石</t>
+  </si>
+  <si>
+    <t>牆壁‧地板‧地毯</t>
+  </si>
+  <si>
+    <t>我的最愛</t>
+  </si>
+  <si>
+    <t>可製作</t>
+  </si>
+  <si>
+    <t>沒製作過</t>
+  </si>
+  <si>
+    <t>居民</t>
+  </si>
+  <si>
+    <t>活動</t>
+  </si>
+  <si>
+    <t>季節方程式</t>
+  </si>
+  <si>
+    <t>蟲</t>
+  </si>
+  <si>
+    <t>海洋生物</t>
+  </si>
+  <si>
+    <t>屋頂</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>牆壁</t>
+  </si>
+  <si>
+    <t>郵筒</t>
+  </si>
+  <si>
+    <t>皮膚顏色</t>
+  </si>
+  <si>
+    <t>頭髮</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>鼻子‧嘴巴</t>
+  </si>
+  <si>
+    <t>臉部彩繪‧其他</t>
+  </si>
+  <si>
+    <t>臉頰</t>
+  </si>
+  <si>
+    <t>附禮物</t>
+  </si>
+  <si>
+    <t>未讀</t>
+  </si>
+  <si>
+    <t>裝備</t>
+  </si>
+  <si>
+    <t>相片</t>
+  </si>
+  <si>
+    <t>每日精選</t>
+  </si>
+  <si>
+    <t>海報</t>
+  </si>
+  <si>
+    <t>最佳朋友</t>
+  </si>
+  <si>
+    <t>正在申請的最佳朋友</t>
+  </si>
+  <si>
+    <t>等待同意的最佳朋友</t>
+  </si>
+  <si>
+    <t>上線</t>
+  </si>
+  <si>
+    <t>雜貨</t>
+  </si>
+  <si>
+    <t>牆壁地板</t>
+  </si>
+  <si>
+    <t>我的設計</t>
+  </si>
+  <si>
+    <t>專業設計</t>
+  </si>
+  <si>
+    <t>特別</t>
+  </si>
+  <si>
+    <t>DIY方程式</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>宣傳品</t>
+  </si>
+  <si>
+    <t>點陣</t>
+  </si>
+  <si>
+    <t>條紋</t>
+  </si>
+  <si>
+    <t>格紋A</t>
+  </si>
+  <si>
+    <t>格紋B</t>
+  </si>
+  <si>
+    <t>傳統A</t>
+  </si>
+  <si>
+    <t>傳統B</t>
+  </si>
+  <si>
+    <t>復古</t>
+  </si>
+  <si>
+    <t>自然風</t>
+  </si>
+  <si>
+    <t>清新</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Fashion Items</t>
+  </si>
+  <si>
+    <t>Creatures</t>
+  </si>
+  <si>
+    <t>Customizable</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Fossils</t>
+  </si>
+  <si>
+    <t>Wallpaper/Floors/Rugs</t>
+  </si>
+  <si>
+    <t>Dress-Up</t>
+  </si>
+  <si>
+    <t>Bottoms</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Craftable</t>
+  </si>
+  <si>
+    <t>Not Crafted Yet</t>
+  </si>
+  <si>
+    <t>Residents</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Seasonal Recipes</t>
+  </si>
+  <si>
+    <t>Insects</t>
+  </si>
+  <si>
+    <t>Sea Creatures</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Siding</t>
+  </si>
+  <si>
+    <t>Mailbox</t>
+  </si>
+  <si>
+    <t>Skin Tone</t>
+  </si>
+  <si>
+    <t>Hairstyle</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Nose/Mouth</t>
+  </si>
+  <si>
+    <t>Face Paint/Other</t>
+  </si>
+  <si>
+    <t>Cheeks</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>With Present</t>
+  </si>
+  <si>
+    <t>Unread</t>
+  </si>
+  <si>
+    <t>From Residents</t>
+  </si>
+  <si>
+    <t>From Friends</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Daily Selection</t>
+  </si>
+  <si>
+    <t>Posters</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>Best Friends</t>
+  </si>
+  <si>
+    <t>Best Friend Outbox</t>
+  </si>
+  <si>
+    <t>Best Friend Inbox</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Wallpaper/Flooring</t>
+  </si>
+  <si>
+    <t>Custom Designs</t>
+  </si>
+  <si>
+    <t>Pro Designs</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>DIY Recipes</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Novelties</t>
+  </si>
+  <si>
+    <t>Polka-dot print</t>
+  </si>
+  <si>
+    <t>Striped</t>
+  </si>
+  <si>
+    <t>Checkered 1</t>
+  </si>
+  <si>
+    <t>Checkered 2</t>
+  </si>
+  <si>
+    <t>Traditional 1</t>
+  </si>
+  <si>
+    <t>Traditional 2</t>
+  </si>
+  <si>
+    <t>Retro</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Playful</t>
+  </si>
+  <si>
+    <t>Balloons</t>
+  </si>
+  <si>
+    <t>Smug villagers</t>
+  </si>
+  <si>
+    <t>Lazy villagers</t>
+  </si>
+  <si>
+    <t>Cranky villagers</t>
+  </si>
+  <si>
+    <t>Snooty villagers</t>
+  </si>
+  <si>
+    <t>Peppy villagers</t>
+  </si>
+  <si>
+    <t>Normal villagers</t>
+  </si>
+  <si>
+    <t>Jock villagers</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Breaking 100 axes</t>
+  </si>
+  <si>
+    <t>Completing fish Critterpedia</t>
+  </si>
+  <si>
+    <t>5-star town evaluation</t>
+  </si>
+  <si>
+    <t>All villagers (while stung)</t>
+  </si>
+  <si>
+    <t>Digging</t>
+  </si>
+  <si>
+    <t>Big Sister villagers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty Good Tools Recipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg balloon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋瓶中信</t>
+  </si>
+  <si>
+    <t>復活蛋氣球</t>
+  </si>
+  <si>
+    <t>收集地面蛋</t>
+  </si>
+  <si>
+    <t>學會所有復活節DIY</t>
+  </si>
+  <si>
+    <t>挖蛤蠣</t>
+  </si>
+  <si>
+    <t>用壞100隻斧頭</t>
+  </si>
+  <si>
+    <t>完成蟲類圖鑑</t>
+  </si>
+  <si>
+    <t>完成魚類圖鑑</t>
+  </si>
+  <si>
+    <t>幫助呂遊30次</t>
+  </si>
+  <si>
+    <t>打到300個氣球</t>
+  </si>
+  <si>
+    <t>島嶼五星級評價</t>
+  </si>
+  <si>
+    <t>收集葉子蛋</t>
+  </si>
+  <si>
+    <t>所有村民（被黃蜂叮時）</t>
+  </si>
+  <si>
+    <t>收集飛天蛋</t>
+  </si>
+  <si>
+    <t>收集石頭蛋</t>
+  </si>
+  <si>
+    <t>收集魚兒蛋</t>
+  </si>
+  <si>
+    <t>收集森林蛋</t>
+  </si>
+  <si>
+    <t>Wildest Dreams DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這種東西也能自己做？！DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIY for Beginners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次的DIY方程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在夏季期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在秋季期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在冬季期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在楓葉季節期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在聖誕季節期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only available during Bunny Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only available during Wedding Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣到三個空罐頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣到三個舊輪胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在遊戲開始時通過狸克的DIY工作坊獲得，也可以在商店購買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣到一個舊靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撿起從岩石中敲出的金塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在遊戲開始時完成第一項哩數任務後從狸克獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Pretty Good Tools Recipes via Nook Miles Redemption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常就能用！道具方程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購物：哩數兌換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過哩數兌換"平常就能用！道具方程式"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作所有復活節DIY後，從蹦蹦中獲得；僅在復活節季節期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward from Zipper after crafting wobbling Zipper toy; Only available during Bunny Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作蹦蹦不倒娃娃獲得；僅在復活節季節期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾抽獎活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redd's Raffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>粒狸</t>
-  </si>
-  <si>
-    <t>鈴鈴鹿</t>
-  </si>
-  <si>
-    <t>阿獺</t>
-  </si>
-  <si>
-    <t>然然</t>
-  </si>
-  <si>
-    <t>巴獵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西施惠</t>
-  </si>
-  <si>
-    <t>西施德</t>
-  </si>
-  <si>
-    <t>壽伯</t>
-  </si>
-  <si>
-    <t>富藍</t>
-  </si>
-  <si>
-    <t>笑匠</t>
-  </si>
-  <si>
-    <t>海項</t>
-  </si>
-  <si>
-    <t>幫村民蓋房子劇情中有50%機會獲得</t>
-  </si>
-  <si>
-    <t>釣到一個空罐頭</t>
-  </si>
-  <si>
-    <t>釣到一個舊輪胎</t>
-  </si>
-  <si>
-    <t>釣到十五個垃圾</t>
-  </si>
-  <si>
-    <t>主線劇情獲得</t>
-  </si>
-  <si>
-    <t>島花為波斯菊，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為風信子，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為百合花，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為菊花，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為三色堇，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為玫瑰，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為鬱金香，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島花為銀蓮花，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島水果為蘋果，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島水果為櫻桃，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島水果為橘子，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島水果為桃子，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>島水果為水梨，則在幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>在遊戲開始時完成自己的DIY工作坊後從狸克獲得</t>
-  </si>
-  <si>
-    <t>Only available during Bunny Day</t>
-  </si>
-  <si>
-    <t>Only available during Festive Season</t>
-  </si>
-  <si>
-    <t>Only available during Maple Leaf Season</t>
-  </si>
-  <si>
-    <t>從Nook商店購買第一次的DIY方程式；幫村民蓋房子劇情中有50%機會獲得</t>
-  </si>
-  <si>
-    <t>從Nook商店購買第一次的DIY方程式；幫村民蓋房子劇情中獲得</t>
-  </si>
-  <si>
-    <t>Purchase Wildest Dreams DIY from Nook's Cranny</t>
-  </si>
-  <si>
-    <t>Reward from Zipper after crafting all Bunny Day recipes; Only available during Bunny Day</t>
-  </si>
-  <si>
-    <t>Obtained during the main storyline</t>
-  </si>
-  <si>
-    <t>Fish up 1 boot</t>
-  </si>
-  <si>
-    <t>Picking up gold nuggets knocked out of rocks</t>
-  </si>
-  <si>
-    <t>在遊戲開始時通過狸克的DIY工作坊獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悠閒型村民</t>
-  </si>
-  <si>
-    <t>普通型村民</t>
-  </si>
-  <si>
-    <t>挑戰！DIY方程式</t>
-  </si>
-  <si>
-    <t>哩數兌換</t>
-  </si>
-  <si>
-    <t>自戀型村民</t>
-  </si>
-  <si>
-    <t>運動型村民</t>
-  </si>
-  <si>
-    <t>暴躁型村民</t>
-  </si>
-  <si>
-    <t>成熟型村民</t>
-  </si>
-  <si>
-    <t>氣球</t>
-  </si>
-  <si>
-    <t>大姐姐型村民</t>
-  </si>
-  <si>
-    <t>活力型村民</t>
-  </si>
-  <si>
-    <t>House Door Decor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>時尚單品</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>可改造</t>
-  </si>
-  <si>
-    <t>化石</t>
-  </si>
-  <si>
-    <t>牆壁‧地板‧地毯</t>
-  </si>
-  <si>
-    <t>我的最愛</t>
-  </si>
-  <si>
-    <t>可製作</t>
-  </si>
-  <si>
-    <t>沒製作過</t>
-  </si>
-  <si>
-    <t>居民</t>
-  </si>
-  <si>
-    <t>活動</t>
-  </si>
-  <si>
-    <t>季節方程式</t>
-  </si>
-  <si>
-    <t>蟲</t>
-  </si>
-  <si>
-    <t>海洋生物</t>
-  </si>
-  <si>
-    <t>屋頂</t>
-  </si>
-  <si>
-    <t>門</t>
-  </si>
-  <si>
-    <t>牆壁</t>
-  </si>
-  <si>
-    <t>郵筒</t>
-  </si>
-  <si>
-    <t>皮膚顏色</t>
-  </si>
-  <si>
-    <t>頭髮</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
-    <t>鼻子‧嘴巴</t>
-  </si>
-  <si>
-    <t>臉部彩繪‧其他</t>
-  </si>
-  <si>
-    <t>臉頰</t>
-  </si>
-  <si>
-    <t>附禮物</t>
-  </si>
-  <si>
-    <t>未讀</t>
-  </si>
-  <si>
-    <t>裝備</t>
-  </si>
-  <si>
-    <t>相片</t>
-  </si>
-  <si>
-    <t>每日精選</t>
-  </si>
-  <si>
-    <t>海報</t>
-  </si>
-  <si>
-    <t>最佳朋友</t>
-  </si>
-  <si>
-    <t>正在申請的最佳朋友</t>
-  </si>
-  <si>
-    <t>等待同意的最佳朋友</t>
-  </si>
-  <si>
-    <t>上線</t>
-  </si>
-  <si>
-    <t>雜貨</t>
-  </si>
-  <si>
-    <t>牆壁地板</t>
-  </si>
-  <si>
-    <t>我的設計</t>
-  </si>
-  <si>
-    <t>專業設計</t>
-  </si>
-  <si>
-    <t>特別</t>
-  </si>
-  <si>
-    <t>DIY方程式</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>宣傳品</t>
-  </si>
-  <si>
-    <t>點陣</t>
-  </si>
-  <si>
-    <t>條紋</t>
-  </si>
-  <si>
-    <t>格紋A</t>
-  </si>
-  <si>
-    <t>格紋B</t>
-  </si>
-  <si>
-    <t>傳統A</t>
-  </si>
-  <si>
-    <t>傳統B</t>
-  </si>
-  <si>
-    <t>復古</t>
-  </si>
-  <si>
-    <t>自然風</t>
-  </si>
-  <si>
-    <t>清新</t>
-  </si>
-  <si>
-    <t>Everything</t>
-  </si>
-  <si>
-    <t>Fashion Items</t>
-  </si>
-  <si>
-    <t>Creatures</t>
-  </si>
-  <si>
-    <t>Customizable</t>
-  </si>
-  <si>
-    <t>Floors</t>
-  </si>
-  <si>
-    <t>Fossils</t>
-  </si>
-  <si>
-    <t>Wallpaper/Floors/Rugs</t>
-  </si>
-  <si>
-    <t>Dress-Up</t>
-  </si>
-  <si>
-    <t>Bottoms</t>
-  </si>
-  <si>
-    <t>Favorites</t>
-  </si>
-  <si>
-    <t>Craftable</t>
-  </si>
-  <si>
-    <t>Not Crafted Yet</t>
-  </si>
-  <si>
-    <t>Residents</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Seasonal Recipes</t>
-  </si>
-  <si>
-    <t>Insects</t>
-  </si>
-  <si>
-    <t>Sea Creatures</t>
-  </si>
-  <si>
-    <t>Roof</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>Siding</t>
-  </si>
-  <si>
-    <t>Mailbox</t>
-  </si>
-  <si>
-    <t>Skin Tone</t>
-  </si>
-  <si>
-    <t>Hairstyle</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>Nose/Mouth</t>
-  </si>
-  <si>
-    <t>Face Paint/Other</t>
-  </si>
-  <si>
-    <t>Cheeks</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>With Present</t>
-  </si>
-  <si>
-    <t>Unread</t>
-  </si>
-  <si>
-    <t>From Residents</t>
-  </si>
-  <si>
-    <t>From Friends</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Photos</t>
-  </si>
-  <si>
-    <t>Daily Selection</t>
-  </si>
-  <si>
-    <t>Posters</t>
-  </si>
-  <si>
-    <t>Promotion</t>
-  </si>
-  <si>
-    <t>Seasonal</t>
-  </si>
-  <si>
-    <t>Best Friends</t>
-  </si>
-  <si>
-    <t>Best Friend Outbox</t>
-  </si>
-  <si>
-    <t>Best Friend Inbox</t>
-  </si>
-  <si>
-    <t>Friends</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Wallpaper/Flooring</t>
-  </si>
-  <si>
-    <t>Custom Designs</t>
-  </si>
-  <si>
-    <t>Pro Designs</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>DIY Recipes</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Novelties</t>
-  </si>
-  <si>
-    <t>Polka-dot print</t>
-  </si>
-  <si>
-    <t>Striped</t>
-  </si>
-  <si>
-    <t>Checkered 1</t>
-  </si>
-  <si>
-    <t>Checkered 2</t>
-  </si>
-  <si>
-    <t>Traditional 1</t>
-  </si>
-  <si>
-    <t>Traditional 2</t>
-  </si>
-  <si>
-    <t>Retro</t>
-  </si>
-  <si>
-    <t>Natural</t>
-  </si>
-  <si>
-    <t>Playful</t>
-  </si>
-  <si>
-    <t>Balloons</t>
-  </si>
-  <si>
-    <t>Smug villagers</t>
-  </si>
-  <si>
-    <t>Lazy villagers</t>
-  </si>
-  <si>
-    <t>Cranky villagers</t>
-  </si>
-  <si>
-    <t>Snooty villagers</t>
-  </si>
-  <si>
-    <t>Peppy villagers</t>
-  </si>
-  <si>
-    <t>Normal villagers</t>
-  </si>
-  <si>
-    <t>Jock villagers</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
-    <t>Breaking 100 axes</t>
-  </si>
-  <si>
-    <t>Completing fish Critterpedia</t>
-  </si>
-  <si>
-    <t>5-star town evaluation</t>
-  </si>
-  <si>
-    <t>All villagers (while stung)</t>
-  </si>
-  <si>
-    <t>Digging</t>
-  </si>
-  <si>
-    <t>Big Sister villagers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pretty Good Tools Recipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg balloon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋瓶中信</t>
-  </si>
-  <si>
-    <t>復活蛋氣球</t>
-  </si>
-  <si>
-    <t>收集地面蛋</t>
-  </si>
-  <si>
-    <t>學會所有復活節DIY</t>
-  </si>
-  <si>
-    <t>挖蛤蠣</t>
-  </si>
-  <si>
-    <t>用壞100隻斧頭</t>
-  </si>
-  <si>
-    <t>完成蟲類圖鑑</t>
-  </si>
-  <si>
-    <t>完成魚類圖鑑</t>
-  </si>
-  <si>
-    <t>幫助呂遊30次</t>
-  </si>
-  <si>
-    <t>打到300個氣球</t>
-  </si>
-  <si>
-    <t>島嶼五星級評價</t>
-  </si>
-  <si>
-    <t>收集葉子蛋</t>
-  </si>
-  <si>
-    <t>所有村民（被黃蜂叮時）</t>
-  </si>
-  <si>
-    <t>收集飛天蛋</t>
-  </si>
-  <si>
-    <t>收集石頭蛋</t>
-  </si>
-  <si>
-    <t>收集魚兒蛋</t>
-  </si>
-  <si>
-    <t>收集森林蛋</t>
-  </si>
-  <si>
-    <t>Wildest Dreams DIY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這種東西也能自己做？！DIY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIY for Beginners</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次的DIY方程式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅在夏季期間獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅在秋季期間獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅在冬季期間獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅在楓葉季節期間獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅在聖誕季節期間獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only available during Bunny Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only available during Wedding Season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>釣到三個空罐頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>釣到三個舊輪胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在遊戲開始時通過狸克的DIY工作坊獲得，也可以在商店購買</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>釣到一個舊靴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撿起從岩石中敲出的金塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在遊戲開始時完成第一項哩數任務後從狸克獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Pretty Good Tools Recipes via Nook Miles Redemption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平常就能用！道具方程式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>購物：哩數兌換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通過哩數兌換"平常就能用！道具方程式"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作所有復活節DIY後，從蹦蹦中獲得；僅在復活節季節期間獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward from Zipper after crafting wobbling Zipper toy; Only available during Bunny Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作蹦蹦不倒娃娃獲得；僅在復活節季節期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available in all tiers of shops, including Timmy &amp; Tommy before the shop is opened</t>
+  </si>
+  <si>
+    <t>商店中購買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only available close to new year holiday</t>
+  </si>
+  <si>
+    <t>新年活動購買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available after unlocking the axe in the story</t>
+  </si>
+  <si>
+    <t>起始劇情中解鎖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available after unlocking the shovel in the story</t>
+  </si>
+  <si>
+    <t>Only available in August on Sundays, after 7 PM</t>
+  </si>
+  <si>
+    <t>僅在8月的周日晚上7點以後可購買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available in the re-buyable slot in Nook's Cranny</t>
+  </si>
+  <si>
+    <t>Obtained by speaking to Isabelle on New Year's Eve</t>
+  </si>
+  <si>
+    <t>在跨年夜與西施惠交談獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available in Nook's Cranny (upgraded only)</t>
+  </si>
+  <si>
+    <t>升級後的商店中可購買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only available during May Day Tour</t>
+  </si>
+  <si>
+    <t>僅在勞動節活動中使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2800,7 +2865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2816,6 +2881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3098,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="C82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98:N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3154,10 +3220,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -3178,10 +3244,10 @@
         <v>543</v>
       </c>
       <c r="M2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3242,10 +3308,10 @@
         <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3274,18 +3340,18 @@
         <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D6" t="s">
         <v>158</v>
@@ -3306,18 +3372,18 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D7" t="s">
         <v>590</v>
@@ -3338,10 +3404,10 @@
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3355,7 +3421,7 @@
         <v>596</v>
       </c>
       <c r="E8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G8" t="s">
         <v>152</v>
@@ -3370,10 +3436,10 @@
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3402,18 +3468,18 @@
         <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D10" t="s">
         <v>580</v>
@@ -3434,15 +3500,15 @@
         <v>125</v>
       </c>
       <c r="M10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>287</v>
@@ -3466,10 +3532,10 @@
         <v>130</v>
       </c>
       <c r="M11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3498,10 +3564,10 @@
         <v>544</v>
       </c>
       <c r="M12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3533,15 +3599,15 @@
         <v>245</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>585</v>
@@ -3570,16 +3636,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D15" t="s">
         <v>597</v>
       </c>
       <c r="E15" t="s">
-        <v>648</v>
+        <v>867</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -3594,10 +3660,10 @@
         <v>542</v>
       </c>
       <c r="M15" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3611,7 +3677,7 @@
         <v>598</v>
       </c>
       <c r="E16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -3626,10 +3692,10 @@
         <v>128</v>
       </c>
       <c r="M16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -3658,10 +3724,10 @@
         <v>546</v>
       </c>
       <c r="M17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3693,12 +3759,12 @@
         <v>250</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>317</v>
@@ -3722,15 +3788,15 @@
         <v>126</v>
       </c>
       <c r="M19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>318</v>
@@ -3757,7 +3823,7 @@
         <v>241</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -3786,10 +3852,10 @@
         <v>549</v>
       </c>
       <c r="M21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -3821,7 +3887,7 @@
         <v>243</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -3853,7 +3919,7 @@
         <v>248</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -3882,18 +3948,18 @@
         <v>551</v>
       </c>
       <c r="M24" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D25" t="s">
         <v>564</v>
@@ -3917,15 +3983,15 @@
         <v>244</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>291</v>
@@ -3940,7 +4006,7 @@
         <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>526</v>
@@ -3948,16 +4014,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>630</v>
+        <v>703</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="G27" t="s">
         <v>64</v>
@@ -3966,7 +4032,7 @@
         <v>527</v>
       </c>
       <c r="M27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>533</v>
@@ -3974,19 +4040,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="G28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H28" t="s">
         <v>103</v>
@@ -4000,16 +4066,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
@@ -4021,21 +4087,21 @@
         <v>238</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -4047,21 +4113,21 @@
         <v>239</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>584</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>148</v>
+        <v>633</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4073,7 +4139,7 @@
         <v>235</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -4084,10 +4150,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>555</v>
+        <v>70</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>606</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -4099,21 +4165,21 @@
         <v>247</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -4125,21 +4191,21 @@
         <v>236</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="G34" t="s">
         <v>68</v>
@@ -4151,21 +4217,21 @@
         <v>240</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
@@ -4177,21 +4243,21 @@
         <v>256</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -4200,24 +4266,24 @@
         <v>102</v>
       </c>
       <c r="M36" t="s">
+        <v>822</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>558</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>210</v>
+        <v>609</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -4229,21 +4295,21 @@
         <v>242</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -4254,16 +4320,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>696</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
@@ -4280,16 +4346,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>694</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4301,21 +4367,21 @@
         <v>218</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -4327,21 +4393,21 @@
         <v>216</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -4353,21 +4419,21 @@
         <v>217</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>523</v>
+        <v>61</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>524</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
         <v>71</v>
@@ -4384,16 +4450,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>205</v>
+        <v>524</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4410,16 +4476,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -4431,21 +4497,21 @@
         <v>258</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D46" t="s">
-        <v>76</v>
+        <v>720</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="G46" t="s">
         <v>47</v>
@@ -4457,21 +4523,21 @@
         <v>233</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
-      </c>
-      <c r="E47" t="s">
-        <v>339</v>
+        <v>76</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="G47" t="s">
         <v>25</v>
@@ -4480,7 +4546,7 @@
         <v>94</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>257</v>
@@ -4488,16 +4554,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>538</v>
+        <v>325</v>
       </c>
       <c r="E48" t="s">
-        <v>537</v>
+        <v>339</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4506,7 +4572,7 @@
         <v>106</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>259</v>
@@ -4514,16 +4580,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D49" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="E49" t="s">
-        <v>653</v>
+        <v>537</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4540,16 +4606,16 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>604</v>
       </c>
       <c r="E50" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="G50" t="s">
         <v>162</v>
@@ -4561,7 +4627,7 @@
         <v>298</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -4572,10 +4638,10 @@
         <v>283</v>
       </c>
       <c r="D51" t="s">
-        <v>603</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G51" t="s">
         <v>67</v>
@@ -4587,21 +4653,21 @@
         <v>528</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D52" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="E52" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="G52" t="s">
         <v>75</v>
@@ -4613,21 +4679,21 @@
         <v>531</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>622</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -4639,21 +4705,21 @@
         <v>530</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="G54" t="s">
         <v>174</v>
@@ -4665,21 +4731,21 @@
         <v>532</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="G55" t="s">
         <v>213</v>
@@ -4691,21 +4757,21 @@
         <v>529</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>556</v>
+        <v>323</v>
       </c>
       <c r="E56" t="s">
-        <v>607</v>
+        <v>337</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
@@ -4714,24 +4780,24 @@
         <v>83</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E57" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G57" t="s">
         <v>55</v>
@@ -4743,21 +4809,21 @@
         <v>304</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D58" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="E58" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="G58" t="s">
         <v>24</v>
@@ -4774,16 +4840,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D59" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="E59" t="s">
-        <v>605</v>
+        <v>866</v>
       </c>
       <c r="G59" t="s">
         <v>49</v>
@@ -4795,21 +4861,21 @@
         <v>307</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D60" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E60" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -4821,21 +4887,21 @@
         <v>312</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="E61" t="s">
-        <v>526</v>
+        <v>613</v>
       </c>
       <c r="G61" t="s">
         <v>56</v>
@@ -4847,7 +4913,7 @@
         <v>316</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -4855,13 +4921,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D62" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="E62" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="G62" t="s">
         <v>289</v>
@@ -4873,21 +4939,21 @@
         <v>311</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D63" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E63" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>342</v>
@@ -4899,21 +4965,21 @@
         <v>310</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D64" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E64" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>344</v>
@@ -4925,21 +4991,21 @@
         <v>309</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E65" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>345</v>
@@ -4951,21 +5017,21 @@
         <v>315</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D66" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="E66" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>346</v>
@@ -4977,21 +5043,21 @@
         <v>308</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D67" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="E67" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>508</v>
@@ -5003,21 +5069,21 @@
         <v>294</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D68" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="E68" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>347</v>
@@ -5029,21 +5095,21 @@
         <v>303</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D69" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="E69" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>348</v>
@@ -5055,21 +5121,21 @@
         <v>305</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D70" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E70" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>349</v>
@@ -5081,21 +5147,21 @@
         <v>306</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D71" t="s">
-        <v>322</v>
+        <v>589</v>
       </c>
       <c r="E71" t="s">
-        <v>327</v>
+        <v>638</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>350</v>
@@ -5107,21 +5173,21 @@
         <v>295</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D72" t="s">
-        <v>578</v>
+        <v>322</v>
       </c>
       <c r="E72" t="s">
-        <v>627</v>
+        <v>327</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>351</v>
@@ -5133,21 +5199,21 @@
         <v>297</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>578</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>627</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>352</v>
@@ -5159,21 +5225,21 @@
         <v>222</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D74" t="s">
-        <v>569</v>
+        <v>54</v>
       </c>
       <c r="E74" t="s">
-        <v>618</v>
+        <v>157</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>353</v>
@@ -5182,24 +5248,24 @@
         <v>510</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D75" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E75" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>354</v>
@@ -5208,7 +5274,7 @@
         <v>444</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>280</v>
@@ -5216,16 +5282,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D76" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="E76" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>355</v>
@@ -5242,16 +5308,16 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D77" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="E77" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>356</v>
@@ -5268,16 +5334,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E78" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>357</v>
@@ -5286,7 +5352,7 @@
         <v>447</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>265</v>
@@ -5297,13 +5363,13 @@
         <v>134</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D79" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="E79" t="s">
-        <v>536</v>
+        <v>648</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>358</v>
@@ -5312,7 +5378,7 @@
         <v>448</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>271</v>
@@ -5320,10 +5386,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>326</v>
+        <v>535</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>359</v>
@@ -5340,10 +5406,10 @@
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>568</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>360</v>
@@ -5360,10 +5426,10 @@
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="E82" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>361</v>
@@ -5380,10 +5446,10 @@
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E83" t="s">
-        <v>610</v>
+        <v>343</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>136</v>
@@ -5400,10 +5466,10 @@
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="E84" t="s">
-        <v>154</v>
+        <v>610</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>362</v>
@@ -5420,10 +5486,10 @@
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>335</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>363</v>
@@ -5440,10 +5506,10 @@
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="E86" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>364</v>
@@ -5455,15 +5521,15 @@
         <v>301</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>365</v>
@@ -5475,15 +5541,15 @@
         <v>302</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>861</v>
+        <v>209</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>366</v>
@@ -5492,7 +5558,7 @@
         <v>453</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>541</v>
@@ -5500,10 +5566,10 @@
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>859</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>367</v>
@@ -5520,7 +5586,7 @@
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="E90" t="s">
         <v>211</v>
@@ -5540,10 +5606,10 @@
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
-        <v>640</v>
+        <v>211</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>369</v>
@@ -5552,18 +5618,18 @@
         <v>454</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>370</v>
@@ -5572,15 +5638,15 @@
         <v>455</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>561</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
         <v>611</v>
@@ -5595,12 +5661,16 @@
         <v>296</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="D94" t="s">
+        <v>561</v>
+      </c>
+      <c r="E94" t="s">
+        <v>611</v>
+      </c>
       <c r="G94" s="1" t="s">
         <v>372</v>
       </c>
@@ -5611,10 +5681,12 @@
         <v>299</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
       <c r="G95" s="1" t="s">
         <v>373</v>
       </c>
@@ -5622,10 +5694,10 @@
         <v>456</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.3">
@@ -5636,10 +5708,10 @@
         <v>457</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="97" spans="7:14" x14ac:dyDescent="0.3">
@@ -5657,8 +5729,12 @@
       <c r="H98" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
+      <c r="M98" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="99" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G99" s="1" t="s">
@@ -5667,8 +5743,12 @@
       <c r="H99" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
+      <c r="M99" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="100" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G100" s="1" t="s">
@@ -5677,8 +5757,12 @@
       <c r="H100" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
+      <c r="M100" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="101" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G101" s="1" t="s">
@@ -5687,8 +5771,12 @@
       <c r="H101" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
+      <c r="M101" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="102" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G102" s="1" t="s">
@@ -5697,8 +5785,12 @@
       <c r="H102" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
+      <c r="M102" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="103" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G103" s="1" t="s">
@@ -5707,8 +5799,12 @@
       <c r="H103" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
+      <c r="M103" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="104" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G104" s="1" t="s">
@@ -5717,8 +5813,12 @@
       <c r="H104" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
+      <c r="M104" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="105" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G105" s="1" t="s">
@@ -5727,6 +5827,12 @@
       <c r="H105" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="M105" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="106" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G106" s="1" t="s">
@@ -5734,6 +5840,12 @@
       </c>
       <c r="H106" s="1" t="s">
         <v>521</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="107" spans="7:14" x14ac:dyDescent="0.3">

--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="4656" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
+    <workbookView xWindow="-38400" yWindow="5256" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M98" sqref="M98:N106"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="5256" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
+    <workbookView xWindow="-38400" yWindow="5856" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="888">
   <si>
     <t>主題</t>
   </si>
@@ -2819,6 +2820,20 @@
   </si>
   <si>
     <t>僅在勞動節活動中使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Notes</t>
+  </si>
+  <si>
+    <t>Received in mail from DAL after 160 flights</t>
+  </si>
+  <si>
+    <t>Received in mail from DAL after 160 flights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛行160次後DAL寄信獲得</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3164,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="I94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5863,6 +5878,12 @@
       <c r="H108" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="M108" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="N108" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="109" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G109" s="1" t="s">
@@ -6264,4 +6285,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="5856" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
+    <workbookView xWindow="-38400" yWindow="7056" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="894">
   <si>
     <t>主題</t>
   </si>
@@ -2834,6 +2834,29 @@
   </si>
   <si>
     <t>飛行160次後DAL寄信獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nook Miles Redemption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hitting a rock</t>
+  </si>
+  <si>
+    <t>Only available during a fireworks display; Available in rotating cabinet stock after August</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在煙火季節中可使用，8月後可於商店櫥櫃中購買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only available during a fireworks display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在煙火季節中可使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3179,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" topLeftCell="E88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4073,10 +4096,10 @@
         <v>103</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>237</v>
+        <v>889</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>253</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -4098,11 +4121,11 @@
       <c r="H29" t="s">
         <v>118</v>
       </c>
-      <c r="M29" t="s">
-        <v>238</v>
+      <c r="M29" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>839</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -4125,10 +4148,10 @@
         <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -4151,10 +4174,10 @@
         <v>109</v>
       </c>
       <c r="M31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -4177,10 +4200,10 @@
         <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -4203,10 +4226,10 @@
         <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -4229,10 +4252,10 @@
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -4255,10 +4278,10 @@
         <v>78</v>
       </c>
       <c r="M35" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -4281,10 +4304,10 @@
         <v>102</v>
       </c>
       <c r="M36" t="s">
-        <v>822</v>
+        <v>256</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4307,10 +4330,10 @@
         <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>242</v>
+        <v>822</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -4332,6 +4355,12 @@
       <c r="H38" t="s">
         <v>92</v>
       </c>
+      <c r="M38" t="s">
+        <v>242</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -4352,12 +4381,6 @@
       <c r="H39" t="s">
         <v>97</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -4379,10 +4402,10 @@
         <v>111</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>844</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4405,10 +4428,10 @@
         <v>95</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -4431,10 +4454,10 @@
         <v>104</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -4457,10 +4480,10 @@
         <v>122</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>232</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -4483,10 +4506,10 @@
         <v>107</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -4509,10 +4532,10 @@
         <v>99</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>847</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -4535,10 +4558,10 @@
         <v>110</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -4561,10 +4584,10 @@
         <v>94</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>849</v>
+        <v>233</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>257</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -4587,10 +4610,10 @@
         <v>106</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -4612,11 +4635,11 @@
       <c r="H49" t="s">
         <v>98</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>223</v>
+      <c r="M49" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -4638,11 +4661,11 @@
       <c r="H50" t="s">
         <v>163</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>298</v>
+      <c r="M50" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>652</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -4665,10 +4688,10 @@
         <v>119</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>528</v>
+        <v>298</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -4691,10 +4714,10 @@
         <v>124</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -4717,10 +4740,10 @@
         <v>164</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -4743,10 +4766,10 @@
         <v>175</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>851</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -4769,10 +4792,10 @@
         <v>214</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -4795,10 +4818,10 @@
         <v>83</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>678</v>
+        <v>529</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>656</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -4821,7 +4844,7 @@
         <v>115</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>304</v>
+        <v>678</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>656</v>
@@ -4847,10 +4870,10 @@
         <v>165</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>228</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -4873,10 +4896,10 @@
         <v>112</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>657</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -4899,10 +4922,10 @@
         <v>91</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -4925,10 +4948,10 @@
         <v>116</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -4951,10 +4974,10 @@
         <v>290</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -4977,10 +5000,10 @@
         <v>516</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -5003,10 +5026,10 @@
         <v>435</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -5029,10 +5052,10 @@
         <v>436</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -5055,10 +5078,10 @@
         <v>437</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -5081,10 +5104,10 @@
         <v>509</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -5107,10 +5130,10 @@
         <v>438</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -5133,10 +5156,10 @@
         <v>439</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -5159,10 +5182,10 @@
         <v>440</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -5185,10 +5208,10 @@
         <v>441</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -5211,10 +5234,10 @@
         <v>442</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -5237,10 +5260,10 @@
         <v>443</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>856</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -5263,10 +5286,10 @@
         <v>510</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>857</v>
+        <v>222</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -5289,10 +5312,10 @@
         <v>444</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>671</v>
+        <v>857</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>280</v>
+        <v>860</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -5315,10 +5338,10 @@
         <v>445</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>220</v>
+        <v>671</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -5341,10 +5364,10 @@
         <v>446</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -5367,10 +5390,10 @@
         <v>447</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>672</v>
+        <v>216</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -5393,10 +5416,10 @@
         <v>448</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -5413,10 +5436,10 @@
         <v>449</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>221</v>
+        <v>673</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.3">
@@ -5433,10 +5456,10 @@
         <v>511</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.3">
@@ -5453,10 +5476,10 @@
         <v>512</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.3">
@@ -5473,10 +5496,10 @@
         <v>513</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.3">
@@ -5493,10 +5516,10 @@
         <v>450</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>540</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.3">
@@ -5513,7 +5536,7 @@
         <v>514</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>540</v>
@@ -5533,10 +5556,10 @@
         <v>451</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>674</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.3">
@@ -5553,10 +5576,10 @@
         <v>452</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.3">
@@ -5573,10 +5596,10 @@
         <v>453</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>676</v>
+        <v>302</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>541</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.3">
@@ -5593,10 +5616,10 @@
         <v>515</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>224</v>
+        <v>676</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>262</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.3">
@@ -5613,10 +5636,10 @@
         <v>517</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.3">
@@ -5633,18 +5656,18 @@
         <v>454</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>677</v>
+        <v>225</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>861</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
-        <v>251</v>
-      </c>
-      <c r="E92" t="s">
-        <v>640</v>
+      <c r="D92" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>859</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>370</v>
@@ -5653,18 +5676,18 @@
         <v>455</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>862</v>
+        <v>677</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="E93" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>371</v>
@@ -5673,15 +5696,15 @@
         <v>518</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>296</v>
+        <v>862</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>561</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
         <v>611</v>
@@ -5693,15 +5716,19 @@
         <v>519</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>681</v>
+        <v>853</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="D95" t="s">
+        <v>561</v>
+      </c>
+      <c r="E95" t="s">
+        <v>611</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>373</v>
       </c>
@@ -5709,10 +5736,10 @@
         <v>456</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>679</v>
+        <v>299</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>854</v>
+        <v>681</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.3">
@@ -5723,10 +5750,10 @@
         <v>457</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="7:14" x14ac:dyDescent="0.3">
@@ -5736,6 +5763,12 @@
       <c r="H97" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="M97" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="98" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G98" s="1" t="s">
@@ -5744,12 +5777,6 @@
       <c r="H98" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="99" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G99" s="1" t="s">
@@ -5759,10 +5786,10 @@
         <v>460</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="7:14" x14ac:dyDescent="0.3">
@@ -5773,10 +5800,10 @@
         <v>520</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="101" spans="7:14" x14ac:dyDescent="0.3">
@@ -5787,7 +5814,7 @@
         <v>461</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N101" s="4" t="s">
         <v>873</v>
@@ -5801,10 +5828,10 @@
         <v>272</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="103" spans="7:14" x14ac:dyDescent="0.3">
@@ -5815,10 +5842,10 @@
         <v>462</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="104" spans="7:14" x14ac:dyDescent="0.3">
@@ -5829,10 +5856,10 @@
         <v>463</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="105" spans="7:14" x14ac:dyDescent="0.3">
@@ -5843,10 +5870,10 @@
         <v>88</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="7:14" x14ac:dyDescent="0.3">
@@ -5857,10 +5884,10 @@
         <v>521</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="107" spans="7:14" x14ac:dyDescent="0.3">
@@ -5870,6 +5897,12 @@
       <c r="H107" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="M107" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="108" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G108" s="1" t="s">
@@ -5878,11 +5911,11 @@
       <c r="H108" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M108" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="N108" t="s">
-        <v>887</v>
+      <c r="M108" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="109" spans="7:14" x14ac:dyDescent="0.3">
@@ -5892,6 +5925,12 @@
       <c r="H109" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="M109" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="110" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G110" s="1" t="s">
@@ -5907,6 +5946,12 @@
       </c>
       <c r="H111" s="1" t="s">
         <v>466</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="N111" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="112" spans="7:14" x14ac:dyDescent="0.3">

--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shih-Chi\Desktop\Nook Inc\NookAssets\web crawler_v2.0\rawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/08737/exercise/NookAssets/web crawler_v2.0/rawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993223A-33B8-1147-80E6-51E3D6B39A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="7056" windowWidth="38400" windowHeight="21144" tabRatio="747"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="909">
   <si>
     <t>主題</t>
   </si>
@@ -2857,14 +2858,70 @@
   </si>
   <si>
     <t>僅在煙火季節中可使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold balloon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃金氣球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balloon appears after shooting 300 balloons</t>
+  </si>
+  <si>
+    <t>Obtained after the 5-star island evaluation</t>
+  </si>
+  <si>
+    <t>Obtained from Tom Nook after completing one Nature Day Nook Miles+ task; Obtained from Leif after buying anything from him on three different days</t>
+  </si>
+  <si>
+    <t>Obtained from crafting villagers during October or as a reward for gifting candy on Halloween.</t>
+  </si>
+  <si>
+    <t>擊破300個氣球後出現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>島嶼獲得五星評價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月份由居民DIY獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三次然然來島上時消費獲得；島嶼任務中獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拱門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nook Shopping Daily Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日購物精選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recycle box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3199,32 +3256,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="40.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="40.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -3256,7 +3313,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>746</v>
       </c>
@@ -3288,7 +3345,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -3352,7 +3409,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>135</v>
       </c>
@@ -3384,7 +3441,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>747</v>
       </c>
@@ -3416,7 +3473,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>748</v>
       </c>
@@ -3448,7 +3505,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>276</v>
       </c>
@@ -3480,7 +3537,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -3512,7 +3569,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>749</v>
       </c>
@@ -3544,7 +3601,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>750</v>
       </c>
@@ -3576,7 +3633,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>270</v>
       </c>
@@ -3608,17 +3665,17 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>332</v>
       </c>
       <c r="G13" t="s">
@@ -3640,18 +3697,18 @@
         <v>685</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>751</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>634</v>
+      <c r="D14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E14" t="s">
+        <v>332</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
@@ -3672,18 +3729,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>752</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="D15" t="s">
-        <v>597</v>
-      </c>
-      <c r="E15" t="s">
-        <v>867</v>
+      <c r="D15" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -3704,7 +3761,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>268</v>
       </c>
@@ -3712,10 +3769,10 @@
         <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E16" t="s">
-        <v>647</v>
+        <v>867</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -3736,7 +3793,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>269</v>
       </c>
@@ -3744,10 +3801,10 @@
         <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>647</v>
       </c>
       <c r="G17" t="s">
         <v>74</v>
@@ -3768,7 +3825,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>277</v>
       </c>
@@ -3776,10 +3833,10 @@
         <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -3800,7 +3857,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>753</v>
       </c>
@@ -3808,10 +3865,10 @@
         <v>317</v>
       </c>
       <c r="D19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
@@ -3832,7 +3889,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>754</v>
       </c>
@@ -3840,10 +3897,10 @@
         <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>588</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>637</v>
       </c>
       <c r="G20" t="s">
         <v>58</v>
@@ -3864,7 +3921,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>321</v>
       </c>
@@ -3872,10 +3929,10 @@
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>591</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>641</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>69</v>
@@ -3896,7 +3953,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>279</v>
       </c>
@@ -3904,10 +3961,10 @@
         <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="E22" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -3928,7 +3985,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>278</v>
       </c>
@@ -3936,10 +3993,10 @@
         <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E23" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -3960,7 +4017,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>260</v>
       </c>
@@ -3968,10 +4025,10 @@
         <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>574</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>623</v>
+        <v>572</v>
+      </c>
+      <c r="E24" t="s">
+        <v>621</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
@@ -3992,7 +4049,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>755</v>
       </c>
@@ -4000,10 +4057,10 @@
         <v>701</v>
       </c>
       <c r="D25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E25" t="s">
-        <v>614</v>
+        <v>574</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="G25" t="s">
         <v>160</v>
@@ -4024,18 +4081,18 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>756</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>293</v>
+      <c r="D26" t="s">
+        <v>564</v>
+      </c>
+      <c r="E26" t="s">
+        <v>614</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -4050,18 +4107,18 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>757</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>864</v>
+      <c r="D27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="G27" t="s">
         <v>64</v>
@@ -4076,18 +4133,18 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
         <v>758</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>630</v>
+      <c r="D28" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="G28" t="s">
         <v>693</v>
@@ -4102,7 +4159,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>759</v>
       </c>
@@ -4110,10 +4167,10 @@
         <v>705</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
@@ -4128,7 +4185,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>760</v>
       </c>
@@ -4136,10 +4193,10 @@
         <v>706</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -4154,7 +4211,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
         <v>761</v>
       </c>
@@ -4162,10 +4219,10 @@
         <v>707</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4180,7 +4237,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -4188,10 +4245,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>584</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>633</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -4206,7 +4263,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
         <v>762</v>
       </c>
@@ -4214,10 +4271,10 @@
         <v>708</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>555</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>606</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -4232,7 +4289,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
         <v>763</v>
       </c>
@@ -4240,10 +4297,10 @@
         <v>709</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="G34" t="s">
         <v>68</v>
@@ -4258,7 +4315,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
         <v>764</v>
       </c>
@@ -4266,10 +4323,10 @@
         <v>710</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
@@ -4284,7 +4341,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
         <v>765</v>
       </c>
@@ -4292,10 +4349,10 @@
         <v>711</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -4310,7 +4367,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
         <v>766</v>
       </c>
@@ -4318,10 +4375,10 @@
         <v>712</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -4336,7 +4393,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
         <v>767</v>
       </c>
@@ -4344,10 +4401,10 @@
         <v>713</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>558</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>210</v>
+        <v>609</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -4362,7 +4419,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
         <v>768</v>
       </c>
@@ -4370,10 +4427,10 @@
         <v>714</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
@@ -4382,7 +4439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
         <v>769</v>
       </c>
@@ -4390,10 +4447,10 @@
         <v>715</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>694</v>
+        <v>147</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4408,7 +4465,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
         <v>770</v>
       </c>
@@ -4416,10 +4473,10 @@
         <v>716</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>694</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -4434,7 +4491,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
         <v>771</v>
       </c>
@@ -4442,10 +4499,10 @@
         <v>717</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -4460,7 +4517,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
         <v>772</v>
       </c>
@@ -4468,10 +4525,10 @@
         <v>718</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G43" t="s">
         <v>71</v>
@@ -4486,7 +4543,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
         <v>773</v>
       </c>
@@ -4494,10 +4551,10 @@
         <v>695</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>523</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>524</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4512,7 +4569,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
         <v>774</v>
       </c>
@@ -4520,10 +4577,10 @@
         <v>719</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>205</v>
+        <v>524</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -4538,7 +4595,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>775</v>
       </c>
@@ -4546,10 +4603,10 @@
         <v>720</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="G46" t="s">
         <v>47</v>
@@ -4564,18 +4621,18 @@
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
         <v>776</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D47" t="s">
-        <v>76</v>
+      <c r="D47" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="G47" t="s">
         <v>25</v>
@@ -4590,7 +4647,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
         <v>777</v>
       </c>
@@ -4598,10 +4655,10 @@
         <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
-      </c>
-      <c r="E48" t="s">
-        <v>339</v>
+        <v>76</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4616,7 +4673,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
         <v>778</v>
       </c>
@@ -4624,10 +4681,10 @@
         <v>721</v>
       </c>
       <c r="D49" t="s">
-        <v>538</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>537</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4642,7 +4699,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>779</v>
       </c>
@@ -4650,10 +4707,10 @@
         <v>722</v>
       </c>
       <c r="D50" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="E50" t="s">
-        <v>651</v>
+        <v>537</v>
       </c>
       <c r="G50" t="s">
         <v>162</v>
@@ -4668,7 +4725,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="A51" s="4" t="s">
         <v>275</v>
       </c>
@@ -4676,10 +4733,10 @@
         <v>283</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>604</v>
       </c>
       <c r="E51" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="G51" t="s">
         <v>67</v>
@@ -4694,7 +4751,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
         <v>780</v>
       </c>
@@ -4702,10 +4759,10 @@
         <v>723</v>
       </c>
       <c r="D52" t="s">
-        <v>603</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G52" t="s">
         <v>75</v>
@@ -4720,7 +4777,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" s="4" t="s">
         <v>781</v>
       </c>
@@ -4728,10 +4785,10 @@
         <v>724</v>
       </c>
       <c r="D53" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="E53" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -4746,7 +4803,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54" s="4" t="s">
         <v>782</v>
       </c>
@@ -4754,10 +4811,10 @@
         <v>705</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>622</v>
       </c>
       <c r="G54" t="s">
         <v>174</v>
@@ -4772,7 +4829,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" s="4" t="s">
         <v>783</v>
       </c>
@@ -4780,10 +4837,10 @@
         <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="G55" t="s">
         <v>213</v>
@@ -4798,7 +4855,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
         <v>784</v>
       </c>
@@ -4806,10 +4863,10 @@
         <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
@@ -4824,7 +4881,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
         <v>785</v>
       </c>
@@ -4832,10 +4889,10 @@
         <v>726</v>
       </c>
       <c r="D57" t="s">
-        <v>556</v>
+        <v>323</v>
       </c>
       <c r="E57" t="s">
-        <v>607</v>
+        <v>337</v>
       </c>
       <c r="G57" t="s">
         <v>55</v>
@@ -4850,7 +4907,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
         <v>786</v>
       </c>
@@ -4858,10 +4915,10 @@
         <v>727</v>
       </c>
       <c r="D58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E58" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G58" t="s">
         <v>24</v>
@@ -4876,7 +4933,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
         <v>787</v>
       </c>
@@ -4884,10 +4941,10 @@
         <v>292</v>
       </c>
       <c r="D59" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="E59" t="s">
-        <v>866</v>
+        <v>608</v>
       </c>
       <c r="G59" t="s">
         <v>49</v>
@@ -4902,7 +4959,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
         <v>788</v>
       </c>
@@ -4910,10 +4967,10 @@
         <v>728</v>
       </c>
       <c r="D60" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="E60" t="s">
-        <v>605</v>
+        <v>866</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -4928,7 +4985,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
         <v>789</v>
       </c>
@@ -4936,10 +4993,10 @@
         <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E61" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G61" t="s">
         <v>56</v>
@@ -4954,7 +5011,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
         <v>3</v>
       </c>
@@ -4962,10 +5019,10 @@
         <v>729</v>
       </c>
       <c r="D62" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="E62" t="s">
-        <v>526</v>
+        <v>613</v>
       </c>
       <c r="G62" t="s">
         <v>289</v>
@@ -4980,7 +5037,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
         <v>790</v>
       </c>
@@ -4988,10 +5045,10 @@
         <v>730</v>
       </c>
       <c r="D63" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="E63" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>342</v>
@@ -5006,7 +5063,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
         <v>791</v>
       </c>
@@ -5014,10 +5071,10 @@
         <v>731</v>
       </c>
       <c r="D64" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E64" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>344</v>
@@ -5032,7 +5089,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
         <v>792</v>
       </c>
@@ -5040,10 +5097,10 @@
         <v>732</v>
       </c>
       <c r="D65" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E65" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>345</v>
@@ -5058,7 +5115,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
         <v>793</v>
       </c>
@@ -5066,10 +5123,10 @@
         <v>733</v>
       </c>
       <c r="D66" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E66" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>346</v>
@@ -5084,7 +5141,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14">
       <c r="A67" s="4" t="s">
         <v>794</v>
       </c>
@@ -5092,10 +5149,10 @@
         <v>734</v>
       </c>
       <c r="D67" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="E67" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>508</v>
@@ -5110,7 +5167,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
         <v>795</v>
       </c>
@@ -5118,10 +5175,10 @@
         <v>735</v>
       </c>
       <c r="D68" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="E68" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>347</v>
@@ -5136,7 +5193,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
         <v>796</v>
       </c>
@@ -5144,10 +5201,10 @@
         <v>736</v>
       </c>
       <c r="D69" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="E69" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>348</v>
@@ -5162,7 +5219,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14">
       <c r="A70" s="4" t="s">
         <v>797</v>
       </c>
@@ -5170,10 +5227,10 @@
         <v>737</v>
       </c>
       <c r="D70" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="E70" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>349</v>
@@ -5188,7 +5245,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14">
       <c r="A71" s="4" t="s">
         <v>798</v>
       </c>
@@ -5196,10 +5253,10 @@
         <v>738</v>
       </c>
       <c r="D71" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E71" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>350</v>
@@ -5214,7 +5271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
         <v>799</v>
       </c>
@@ -5222,10 +5279,10 @@
         <v>739</v>
       </c>
       <c r="D72" t="s">
-        <v>322</v>
+        <v>589</v>
       </c>
       <c r="E72" t="s">
-        <v>327</v>
+        <v>638</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>351</v>
@@ -5240,7 +5297,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
         <v>800</v>
       </c>
@@ -5248,10 +5305,10 @@
         <v>740</v>
       </c>
       <c r="D73" t="s">
-        <v>578</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
-        <v>627</v>
+        <v>327</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>352</v>
@@ -5266,7 +5323,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14">
       <c r="A74" s="4" t="s">
         <v>801</v>
       </c>
@@ -5274,10 +5331,10 @@
         <v>741</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>578</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>627</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>353</v>
@@ -5292,7 +5349,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14">
       <c r="A75" s="4" t="s">
         <v>802</v>
       </c>
@@ -5300,10 +5357,10 @@
         <v>742</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>618</v>
+        <v>157</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>354</v>
@@ -5318,7 +5375,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14">
       <c r="A76" s="4" t="s">
         <v>803</v>
       </c>
@@ -5326,10 +5383,10 @@
         <v>743</v>
       </c>
       <c r="D76" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E76" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>355</v>
@@ -5344,7 +5401,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14">
       <c r="A77" s="4" t="s">
         <v>804</v>
       </c>
@@ -5352,10 +5409,10 @@
         <v>744</v>
       </c>
       <c r="D77" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="E77" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>356</v>
@@ -5370,7 +5427,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
         <v>805</v>
       </c>
@@ -5378,10 +5435,10 @@
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="E78" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>357</v>
@@ -5396,7 +5453,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14">
       <c r="A79" s="4" t="s">
         <v>134</v>
       </c>
@@ -5404,10 +5461,10 @@
         <v>745</v>
       </c>
       <c r="D79" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E79" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>358</v>
@@ -5422,12 +5479,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14">
       <c r="D80" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="E80" t="s">
-        <v>536</v>
+        <v>648</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>359</v>
@@ -5442,12 +5499,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:14">
       <c r="D81" t="s">
-        <v>326</v>
+        <v>535</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>360</v>
@@ -5462,12 +5519,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:14">
       <c r="D82" t="s">
-        <v>568</v>
+        <v>326</v>
       </c>
       <c r="E82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>361</v>
@@ -5482,12 +5539,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:14">
       <c r="D83" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="E83" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>136</v>
@@ -5502,12 +5559,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:14">
       <c r="D84" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E84" t="s">
-        <v>610</v>
+        <v>343</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>362</v>
@@ -5522,12 +5579,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:14">
       <c r="D85" t="s">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="E85" t="s">
-        <v>154</v>
+        <v>610</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>363</v>
@@ -5542,12 +5599,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:14">
       <c r="D86" t="s">
-        <v>335</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>364</v>
@@ -5562,12 +5619,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:14">
       <c r="D87" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>365</v>
@@ -5582,12 +5639,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:14">
       <c r="D88" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>366</v>
@@ -5602,12 +5659,12 @@
         <v>675</v>
       </c>
     </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:14">
       <c r="D89" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>859</v>
+        <v>209</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>367</v>
@@ -5622,12 +5679,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:14">
       <c r="D90" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>859</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>368</v>
@@ -5642,9 +5699,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:14">
       <c r="D91" t="s">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
         <v>211</v>
@@ -5662,12 +5719,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D92" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>859</v>
+    <row r="92" spans="4:14">
+      <c r="D92" t="s">
+        <v>330</v>
+      </c>
+      <c r="E92" t="s">
+        <v>211</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>370</v>
@@ -5682,12 +5739,12 @@
         <v>861</v>
       </c>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
-        <v>251</v>
-      </c>
-      <c r="E93" t="s">
-        <v>640</v>
+    <row r="93" spans="4:14">
+      <c r="D93" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>859</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>371</v>
@@ -5702,12 +5759,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:14">
       <c r="D94" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>372</v>
@@ -5722,9 +5779,9 @@
         <v>853</v>
       </c>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14">
       <c r="D95" t="s">
-        <v>561</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
         <v>611</v>
@@ -5742,7 +5799,13 @@
         <v>681</v>
       </c>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14">
+      <c r="D96" t="s">
+        <v>561</v>
+      </c>
+      <c r="E96" t="s">
+        <v>611</v>
+      </c>
       <c r="G96" s="1" t="s">
         <v>374</v>
       </c>
@@ -5756,7 +5819,13 @@
         <v>854</v>
       </c>
     </row>
-    <row r="97" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:14">
+      <c r="D97" t="s">
+        <v>906</v>
+      </c>
+      <c r="E97" t="s">
+        <v>907</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>375</v>
       </c>
@@ -5770,7 +5839,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="98" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:14">
       <c r="G98" s="1" t="s">
         <v>376</v>
       </c>
@@ -5778,7 +5847,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:14">
       <c r="G99" s="1" t="s">
         <v>377</v>
       </c>
@@ -5792,7 +5861,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="100" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:14">
       <c r="G100" s="1" t="s">
         <v>378</v>
       </c>
@@ -5806,7 +5875,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="101" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:14">
       <c r="G101" s="1" t="s">
         <v>379</v>
       </c>
@@ -5820,7 +5889,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="102" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:14">
       <c r="G102" s="1" t="s">
         <v>380</v>
       </c>
@@ -5834,7 +5903,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="103" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:14">
       <c r="G103" s="1" t="s">
         <v>381</v>
       </c>
@@ -5848,7 +5917,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="104" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:14">
       <c r="G104" s="1" t="s">
         <v>382</v>
       </c>
@@ -5862,7 +5931,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="105" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:14">
       <c r="G105" s="1" t="s">
         <v>16</v>
       </c>
@@ -5876,7 +5945,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="106" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:14">
       <c r="G106" s="1" t="s">
         <v>383</v>
       </c>
@@ -5890,7 +5959,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="107" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:14">
       <c r="G107" s="1" t="s">
         <v>384</v>
       </c>
@@ -5904,7 +5973,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="108" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:14">
       <c r="G108" s="1" t="s">
         <v>137</v>
       </c>
@@ -5918,7 +5987,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="109" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:14">
       <c r="G109" s="1" t="s">
         <v>385</v>
       </c>
@@ -5932,7 +6001,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="110" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:14">
       <c r="G110" s="1" t="s">
         <v>138</v>
       </c>
@@ -5940,7 +6009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:14">
       <c r="G111" s="1" t="s">
         <v>386</v>
       </c>
@@ -5954,47 +6023,77 @@
         <v>887</v>
       </c>
     </row>
-    <row r="112" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:14">
       <c r="G112" s="1" t="s">
         <v>387</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="M112" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="N112" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="113" spans="7:14">
       <c r="G113" s="1" t="s">
         <v>388</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="M113" t="s">
+        <v>896</v>
+      </c>
+      <c r="N113" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114" spans="7:14">
       <c r="G114" s="1" t="s">
         <v>389</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="M114" t="s">
+        <v>897</v>
+      </c>
+      <c r="N114" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="115" spans="7:14">
       <c r="G115" s="1" t="s">
         <v>390</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="M115" t="s">
+        <v>898</v>
+      </c>
+      <c r="N115" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="116" spans="7:14">
       <c r="G116" s="1" t="s">
         <v>391</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="M116" t="s">
+        <v>899</v>
+      </c>
+      <c r="N116" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="117" spans="7:14">
       <c r="G117" s="1" t="s">
         <v>392</v>
       </c>
@@ -6002,7 +6101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:14">
       <c r="G118" s="1" t="s">
         <v>393</v>
       </c>
@@ -6010,7 +6109,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:14">
       <c r="G119" s="1" t="s">
         <v>394</v>
       </c>
@@ -6018,7 +6117,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:14">
       <c r="G120" s="1" t="s">
         <v>395</v>
       </c>
@@ -6026,7 +6125,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:14">
       <c r="G121" s="1" t="s">
         <v>396</v>
       </c>
@@ -6034,7 +6133,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:14">
       <c r="G122" s="1" t="s">
         <v>397</v>
       </c>
@@ -6042,7 +6141,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:14">
       <c r="G123" s="1" t="s">
         <v>398</v>
       </c>
@@ -6050,7 +6149,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:14">
       <c r="G124" s="1" t="s">
         <v>399</v>
       </c>
@@ -6058,7 +6157,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:14">
       <c r="G125" s="1" t="s">
         <v>400</v>
       </c>
@@ -6066,7 +6165,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:14">
       <c r="G126" s="1" t="s">
         <v>401</v>
       </c>
@@ -6074,7 +6173,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:14">
       <c r="G127" s="1" t="s">
         <v>402</v>
       </c>
@@ -6082,7 +6181,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:14">
       <c r="G128" s="1" t="s">
         <v>403</v>
       </c>
@@ -6090,7 +6189,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:8">
       <c r="G129" s="1" t="s">
         <v>404</v>
       </c>
@@ -6098,7 +6197,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:8">
       <c r="G130" s="1" t="s">
         <v>405</v>
       </c>
@@ -6106,7 +6205,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:8">
       <c r="G131" s="1" t="s">
         <v>406</v>
       </c>
@@ -6114,7 +6213,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:8">
       <c r="G132" s="1" t="s">
         <v>407</v>
       </c>
@@ -6122,7 +6221,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:8">
       <c r="G133" s="1" t="s">
         <v>408</v>
       </c>
@@ -6130,7 +6229,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:8">
       <c r="G134" s="1" t="s">
         <v>409</v>
       </c>
@@ -6138,7 +6237,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:8" ht="16">
       <c r="G135" s="1" t="s">
         <v>410</v>
       </c>
@@ -6146,7 +6245,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:8">
       <c r="G136" s="1" t="s">
         <v>411</v>
       </c>
@@ -6154,7 +6253,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:8">
       <c r="G137" s="1" t="s">
         <v>412</v>
       </c>
@@ -6162,7 +6261,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:8">
       <c r="G138" s="1" t="s">
         <v>413</v>
       </c>
@@ -6170,7 +6269,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:8">
       <c r="G139" s="1" t="s">
         <v>414</v>
       </c>
@@ -6178,7 +6277,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:8">
       <c r="G140" s="1" t="s">
         <v>415</v>
       </c>
@@ -6186,7 +6285,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:8">
       <c r="G141" s="1" t="s">
         <v>417</v>
       </c>
@@ -6194,7 +6293,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:8">
       <c r="G142" s="1" t="s">
         <v>418</v>
       </c>
@@ -6202,7 +6301,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:8">
       <c r="G143" s="1" t="s">
         <v>419</v>
       </c>
@@ -6210,7 +6309,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:8">
       <c r="G144" s="1" t="s">
         <v>420</v>
       </c>
@@ -6218,7 +6317,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:8">
       <c r="G145" s="1" t="s">
         <v>422</v>
       </c>
@@ -6226,7 +6325,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:8">
       <c r="G146" s="1" t="s">
         <v>423</v>
       </c>
@@ -6234,7 +6333,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:8">
       <c r="G147" s="1" t="s">
         <v>424</v>
       </c>
@@ -6242,7 +6341,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:8">
       <c r="G148" s="1" t="s">
         <v>425</v>
       </c>
@@ -6250,7 +6349,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:8">
       <c r="G149" s="1" t="s">
         <v>426</v>
       </c>
@@ -6258,7 +6357,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:8">
       <c r="G150" s="1" t="s">
         <v>427</v>
       </c>
@@ -6266,7 +6365,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:8">
       <c r="G151" s="1" t="s">
         <v>428</v>
       </c>
@@ -6274,7 +6373,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:8">
       <c r="G152" s="1" t="s">
         <v>429</v>
       </c>
@@ -6282,7 +6381,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:8">
       <c r="G153" s="1" t="s">
         <v>430</v>
       </c>
@@ -6290,7 +6389,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:8">
       <c r="G154" s="1" t="s">
         <v>431</v>
       </c>
@@ -6298,7 +6397,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:8">
       <c r="G155" s="1" t="s">
         <v>432</v>
       </c>
@@ -6306,7 +6405,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:8">
       <c r="G156" s="1" t="s">
         <v>433</v>
       </c>
@@ -6314,7 +6413,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:8">
       <c r="G157" s="1" t="s">
         <v>434</v>
       </c>
@@ -6322,9 +6421,17 @@
         <v>494</v>
       </c>
     </row>
+    <row r="158" spans="7:8">
+      <c r="G158" t="s">
+        <v>904</v>
+      </c>
+      <c r="H158" t="s">
+        <v>905</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="D2:E157">
-    <sortCondition ref="E2:E157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E158">
+    <sortCondition ref="E2:E158"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6333,26 +6440,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>885</v>
       </c>

--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/08737/exercise/NookAssets/web crawler_v2.0/rawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993223A-33B8-1147-80E6-51E3D6B39A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD8DB1-2830-5C4A-9DCF-5BD7EB3543F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="914">
   <si>
     <t>主題</t>
   </si>
@@ -2915,6 +2915,23 @@
   <si>
     <t>Recycle box</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cozy Turkey Day DIY</t>
+  </si>
+  <si>
+    <t>感恩節DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasonal decor</t>
+  </si>
+  <si>
+    <t>季節性裝飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zen-style</t>
   </si>
 </sst>
 </file>
@@ -3257,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4100,6 +4117,12 @@
       <c r="H26" t="s">
         <v>80</v>
       </c>
+      <c r="J26" t="s">
+        <v>913</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>545</v>
+      </c>
       <c r="M26" t="s">
         <v>814</v>
       </c>
@@ -6100,6 +6123,12 @@
       <c r="H117" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="M117" t="s">
+        <v>909</v>
+      </c>
+      <c r="N117" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="118" spans="7:14">
       <c r="G118" s="1" t="s">
@@ -6427,6 +6456,14 @@
       </c>
       <c r="H158" t="s">
         <v>905</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8">
+      <c r="G159" t="s">
+        <v>911</v>
+      </c>
+      <c r="H159" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>

--- a/web crawler_v2.0/rawData/Translations - custom.xlsx
+++ b/web crawler_v2.0/rawData/Translations - custom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/08737/exercise/NookAssets/web crawler_v2.0/rawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD8DB1-2830-5C4A-9DCF-5BD7EB3543F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D3DE1-53FD-1946-9E89-0FFF8D7179C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="中英對照" sheetId="10" r:id="rId1"/>
     <sheet name="工作表1" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="916">
   <si>
     <t>主題</t>
   </si>
@@ -2932,6 +2941,13 @@
   </si>
   <si>
     <t>Zen-style</t>
+  </si>
+  <si>
+    <t>Villagers</t>
+  </si>
+  <si>
+    <t>村民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3276,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5863,6 +5879,12 @@
       </c>
     </row>
     <row r="98" spans="4:14">
+      <c r="D98" t="s">
+        <v>914</v>
+      </c>
+      <c r="E98" t="s">
+        <v>915</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>376</v>
       </c>
